--- a/Data/Processed/Angiosperms/missing_powo_ipni/Myristicaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Myristicaceae.xlsx
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 2: 151. 1936 </t>
+          <t>Brittonia 2: 151. 1936</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nova Acta Acad. Caes. Leop.-Carol. German. Nat. Cur. 68: 180. 1897 </t>
+          <t>Nova Acta Acad. Caes. Leop.-Carol. German. Nat. Cur. 68: 180. 1897</t>
         </is>
       </c>
       <c r="J81" t="b">
